--- a/mbs-perturbation/mega/elm/smote/ELM_tanh_smote_results.xlsx
+++ b/mbs-perturbation/mega/elm/smote/ELM_tanh_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5094850948509485</v>
+        <v>0.4892966360856269</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9947089947089947</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6738351254480287</v>
+        <v>0.6570841889117044</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5356926012663717</v>
+        <v>0.6234726123595506</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5214723926380368</v>
+        <v>0.5256797583081571</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9714285714285714</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6786427145708582</v>
+        <v>0.6891089108910892</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7222480058013053</v>
+        <v>0.5438919259882253</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5137362637362637</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9842105263157894</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6750902527075813</v>
+        <v>0.6774193548387097</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5087622903412378</v>
+        <v>0.5294117647058824</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5056179775280899</v>
+        <v>0.6987951807228916</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6691449814126395</v>
+        <v>0.4853556485355649</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5793069364497937</v>
+        <v>0.7107283741899127</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5228571428571429</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9481865284974094</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6740331491712708</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6390376666472609</v>
+        <v>0.509933774834437</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5146337743220963</v>
+        <v>0.445193339413579</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9775091219923506</v>
+        <v>0.6743589743589744</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6741492446620756</v>
+        <v>0.5017936206354137</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5970095001011939</v>
+        <v>0.5834876904156017</v>
       </c>
     </row>
   </sheetData>
